--- a/Documentation/Key Panel-Wiring-v-0.0.1.xlsx
+++ b/Documentation/Key Panel-Wiring-v-0.0.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navid\Key Panel\Wiring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mobin3\Mobin3_src\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2268" windowHeight="8292" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2265" windowHeight="8295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Key W Light CTRL" sheetId="1" r:id="rId1"/>
@@ -400,6 +400,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,9 +425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,26 +716,26 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,8 +752,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -769,8 +769,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -784,8 +784,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -799,8 +799,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -814,8 +814,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -831,8 +831,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -846,8 +846,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -861,8 +861,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -876,8 +876,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -893,8 +893,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -908,8 +908,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -923,8 +923,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -938,8 +938,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -955,8 +955,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -970,8 +970,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -985,8 +985,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
@@ -1000,8 +1000,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1017,8 +1017,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1032,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
@@ -1047,8 +1047,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
@@ -1062,8 +1062,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1079,8 +1079,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1094,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1109,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
@@ -1124,8 +1124,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1141,8 +1141,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
@@ -1156,8 +1156,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
@@ -1171,8 +1171,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
@@ -1210,26 +1210,26 @@
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1246,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1263,8 +1263,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1278,8 +1278,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1293,8 +1293,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1308,8 +1308,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1325,8 +1325,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1340,8 +1340,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1355,8 +1355,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1370,8 +1370,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1387,8 +1387,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1402,8 +1402,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1417,8 +1417,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1432,8 +1432,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1449,8 +1449,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1464,8 +1464,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1479,8 +1479,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
@@ -1494,8 +1494,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1511,8 +1511,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
@@ -1526,8 +1526,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
@@ -1541,8 +1541,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
@@ -1556,8 +1556,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1573,8 +1573,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1588,8 +1588,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1603,8 +1603,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
@@ -1618,8 +1618,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1635,8 +1635,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
@@ -1650,8 +1650,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
@@ -1665,8 +1665,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
@@ -1680,8 +1680,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1697,8 +1697,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1712,8 +1712,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -1727,8 +1727,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1742,8 +1742,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1759,8 +1759,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>7</v>
       </c>
@@ -1774,8 +1774,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
       <c r="B37" s="5" t="s">
         <v>8</v>
       </c>
@@ -1789,8 +1789,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
       <c r="B38" s="5" t="s">
         <v>9</v>
       </c>
@@ -1804,8 +1804,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1821,8 +1821,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
@@ -1836,8 +1836,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
       <c r="B41" s="4" t="s">
         <v>8</v>
       </c>
@@ -1851,8 +1851,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
       <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
@@ -1866,8 +1866,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1883,8 +1883,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
       <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
@@ -1898,8 +1898,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
         <v>8</v>
       </c>
@@ -1913,8 +1913,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
       <c r="B46" s="5" t="s">
         <v>9</v>
       </c>
@@ -1928,8 +1928,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1945,8 +1945,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
@@ -1960,8 +1960,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
       <c r="B49" s="4" t="s">
         <v>8</v>
       </c>
@@ -1975,8 +1975,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
       <c r="B50" s="4" t="s">
         <v>9</v>
       </c>
@@ -1990,8 +1990,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2007,8 +2007,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
       <c r="B52" s="5" t="s">
         <v>7</v>
       </c>
@@ -2022,8 +2022,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2037,8 +2037,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
       <c r="B54" s="5" t="s">
         <v>9</v>
       </c>
@@ -2052,8 +2052,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2069,8 +2069,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
       <c r="B56" s="4" t="s">
         <v>7</v>
       </c>
@@ -2084,8 +2084,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
       <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
@@ -2099,8 +2099,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
       <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
@@ -2114,8 +2114,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2131,8 +2131,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
       <c r="B60" s="5" t="s">
         <v>7</v>
       </c>
@@ -2146,8 +2146,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
       <c r="B61" s="5" t="s">
         <v>8</v>
       </c>
@@ -2161,8 +2161,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
       <c r="B62" s="5" t="s">
         <v>9</v>
       </c>
@@ -2178,12 +2178,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A55:A58"/>
@@ -2194,6 +2188,12 @@
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2205,28 +2205,28 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D13" sqref="A3:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2243,76 +2243,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>69</v>
       </c>
     </row>
